--- a/Methods Description.xlsx
+++ b/Methods Description.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7089A12-B0E8-4ED6-86C1-86E65226DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC2A8B-1EAB-49D5-9F49-A327B5721385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods Description" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Method Name</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>ALV control: Number of Decimals</t>
+  </si>
+  <si>
+    <t>Checkbox - Sum column Yes/No</t>
+  </si>
+  <si>
+    <t>SUM_TOTAL</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +211,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +219,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -605,24 +611,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -678,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -692,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -706,12 +712,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,7 +759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -767,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -781,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -795,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -809,7 +815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -823,7 +829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -837,7 +843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -861,20 +867,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -883,7 +889,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -900,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -917,7 +923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -934,7 +940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -951,7 +957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -968,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -985,66 +991,76 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1068,9 +1084,9 @@
       <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:22" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:22" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
